--- a/data/158/MOF/TRADE/COUN/Middle East.xlsx
+++ b/data/158/MOF/TRADE/COUN/Middle East.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX37"/>
+  <dimension ref="A1:TJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,7 +4538,7 @@
         <v>186323134</v>
       </c>
       <c r="SM2" t="n">
-        <v>141515202</v>
+        <v>141517023</v>
       </c>
       <c r="SN2" t="n">
         <v>185111085</v>
@@ -4487,7 +4547,7 @@
         <v>235514069</v>
       </c>
       <c r="SP2" t="n">
-        <v>177269612</v>
+        <v>177275838</v>
       </c>
       <c r="SQ2" t="n">
         <v>126620481</v>
@@ -4496,22 +4556,58 @@
         <v>187812057</v>
       </c>
       <c r="SS2" t="n">
-        <v>194937550</v>
+        <v>194940111</v>
       </c>
       <c r="ST2" t="n">
         <v>147300088</v>
       </c>
       <c r="SU2" t="n">
-        <v>129530347</v>
+        <v>129516907</v>
       </c>
       <c r="SV2" t="n">
-        <v>137910291</v>
+        <v>137875825</v>
       </c>
       <c r="SW2" t="n">
-        <v>192265393</v>
+        <v>192263487</v>
       </c>
       <c r="SX2" t="n">
-        <v>196474202</v>
+        <v>196472073</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>160655413</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>499626613</v>
       </c>
       <c r="SM3" t="n">
-        <v>508992484</v>
+        <v>508617087</v>
       </c>
       <c r="SN3" t="n">
-        <v>544835677</v>
+        <v>544251312</v>
       </c>
       <c r="SO3" t="n">
-        <v>616801447</v>
+        <v>616614570</v>
       </c>
       <c r="SP3" t="n">
-        <v>671328503</v>
+        <v>670713224</v>
       </c>
       <c r="SQ3" t="n">
-        <v>545122282</v>
+        <v>545189734</v>
       </c>
       <c r="SR3" t="n">
-        <v>614101915</v>
+        <v>614021371</v>
       </c>
       <c r="SS3" t="n">
-        <v>663129736</v>
+        <v>663267866</v>
       </c>
       <c r="ST3" t="n">
-        <v>839671050</v>
+        <v>839447067</v>
       </c>
       <c r="SU3" t="n">
-        <v>789708263</v>
+        <v>789818970</v>
       </c>
       <c r="SV3" t="n">
-        <v>748902711</v>
+        <v>749492597</v>
       </c>
       <c r="SW3" t="n">
-        <v>892647062</v>
+        <v>892622619</v>
       </c>
       <c r="SX3" t="n">
-        <v>1036381905</v>
+        <v>1036667548</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>920208267</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7633,6 +7765,42 @@
       <c r="SX4" t="n">
         <v>436378</v>
       </c>
+      <c r="SY4" t="n">
+        <v>862897</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -9179,7 +9347,7 @@
         <v>202704</v>
       </c>
       <c r="ST5" t="n">
-        <v>471408</v>
+        <v>468408</v>
       </c>
       <c r="SU5" t="n">
         <v>359630</v>
@@ -9192,6 +9360,42 @@
       </c>
       <c r="SX5" t="n">
         <v>257986</v>
+      </c>
+      <c r="SY5" t="n">
+        <v>316893</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10727,7 +10931,7 @@
         <v>4553966</v>
       </c>
       <c r="SP6" t="n">
-        <v>3255129</v>
+        <v>3254031</v>
       </c>
       <c r="SQ6" t="n">
         <v>1396421</v>
@@ -10752,6 +10956,42 @@
       </c>
       <c r="SX6" t="n">
         <v>5064610</v>
+      </c>
+      <c r="SY6" t="n">
+        <v>6300894</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12313,6 +12553,42 @@
       <c r="SX7" t="n">
         <v>1330405</v>
       </c>
+      <c r="SY7" t="n">
+        <v>831</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -13873,6 +14149,42 @@
       <c r="SX8" t="n">
         <v>4868797</v>
       </c>
+      <c r="SY8" t="n">
+        <v>3656163</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15398,28 +15710,28 @@
         <v>743367</v>
       </c>
       <c r="SM9" t="n">
-        <v>12565317</v>
+        <v>12543335</v>
       </c>
       <c r="SN9" t="n">
-        <v>13323576</v>
+        <v>13297794</v>
       </c>
       <c r="SO9" t="n">
-        <v>16515636</v>
+        <v>16533547</v>
       </c>
       <c r="SP9" t="n">
-        <v>8603951</v>
+        <v>8541626</v>
       </c>
       <c r="SQ9" t="n">
-        <v>10748152</v>
+        <v>10667739</v>
       </c>
       <c r="SR9" t="n">
-        <v>7401677</v>
+        <v>7355669</v>
       </c>
       <c r="SS9" t="n">
         <v>6799575</v>
       </c>
       <c r="ST9" t="n">
-        <v>6090386</v>
+        <v>6072968</v>
       </c>
       <c r="SU9" t="n">
         <v>18725684</v>
@@ -15432,6 +15744,42 @@
       </c>
       <c r="SX9" t="n">
         <v>18456574</v>
+      </c>
+      <c r="SY9" t="n">
+        <v>15306590</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16993,6 +17341,42 @@
       <c r="SX10" t="n">
         <v>0</v>
       </c>
+      <c r="SY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -18553,6 +18937,42 @@
       <c r="SX11" t="n">
         <v>0</v>
       </c>
+      <c r="SY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -20113,6 +20533,42 @@
       <c r="SX12" t="n">
         <v>42001143</v>
       </c>
+      <c r="SY12" t="n">
+        <v>34044994</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -21638,40 +22094,76 @@
         <v>198095070</v>
       </c>
       <c r="SM13" t="n">
-        <v>179546457</v>
+        <v>179561334</v>
       </c>
       <c r="SN13" t="n">
-        <v>216271054</v>
+        <v>216292491</v>
       </c>
       <c r="SO13" t="n">
-        <v>249811077</v>
+        <v>249836335</v>
       </c>
       <c r="SP13" t="n">
-        <v>231019816</v>
+        <v>231044880</v>
       </c>
       <c r="SQ13" t="n">
-        <v>161454217</v>
+        <v>161676449</v>
       </c>
       <c r="SR13" t="n">
-        <v>195719349</v>
+        <v>195753726</v>
       </c>
       <c r="SS13" t="n">
-        <v>225949572</v>
+        <v>225946150</v>
       </c>
       <c r="ST13" t="n">
-        <v>320805074</v>
+        <v>320832632</v>
       </c>
       <c r="SU13" t="n">
-        <v>236285844</v>
+        <v>236294893</v>
       </c>
       <c r="SV13" t="n">
-        <v>267217489</v>
+        <v>267227116</v>
       </c>
       <c r="SW13" t="n">
-        <v>337659273</v>
+        <v>337506387</v>
       </c>
       <c r="SX13" t="n">
-        <v>397188901</v>
+        <v>397359996</v>
+      </c>
+      <c r="SY13" t="n">
+        <v>355693625</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23198,7 +23690,7 @@
         <v>16800748</v>
       </c>
       <c r="SM14" t="n">
-        <v>12354188</v>
+        <v>12356009</v>
       </c>
       <c r="SN14" t="n">
         <v>14520422</v>
@@ -23232,6 +23724,42 @@
       </c>
       <c r="SX14" t="n">
         <v>12307712</v>
+      </c>
+      <c r="SY14" t="n">
+        <v>10323135</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24758,40 +25286,76 @@
         <v>34394865</v>
       </c>
       <c r="SM15" t="n">
-        <v>35135398</v>
+        <v>35103826</v>
       </c>
       <c r="SN15" t="n">
-        <v>51696628</v>
+        <v>51491725</v>
       </c>
       <c r="SO15" t="n">
-        <v>50500870</v>
+        <v>50404650</v>
       </c>
       <c r="SP15" t="n">
-        <v>64268491</v>
+        <v>64036891</v>
       </c>
       <c r="SQ15" t="n">
         <v>45823339</v>
       </c>
       <c r="SR15" t="n">
-        <v>53843244</v>
+        <v>53845615</v>
       </c>
       <c r="SS15" t="n">
-        <v>63173246</v>
+        <v>63173369</v>
       </c>
       <c r="ST15" t="n">
-        <v>61455706</v>
+        <v>61463194</v>
       </c>
       <c r="SU15" t="n">
-        <v>74678914</v>
+        <v>74683513</v>
       </c>
       <c r="SV15" t="n">
-        <v>75947469</v>
+        <v>75993012</v>
       </c>
       <c r="SW15" t="n">
         <v>72473624</v>
       </c>
       <c r="SX15" t="n">
         <v>78712456</v>
+      </c>
+      <c r="SY15" t="n">
+        <v>69804770</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -26353,6 +26917,42 @@
       <c r="SX16" t="n">
         <v>10864998</v>
       </c>
+      <c r="SY16" t="n">
+        <v>8257422</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -27878,31 +28478,31 @@
         <v>97479946</v>
       </c>
       <c r="SM17" t="n">
-        <v>81920368</v>
+        <v>81926886</v>
       </c>
       <c r="SN17" t="n">
-        <v>114256866</v>
+        <v>114260776</v>
       </c>
       <c r="SO17" t="n">
         <v>104235780</v>
       </c>
       <c r="SP17" t="n">
-        <v>94009824</v>
+        <v>94012853</v>
       </c>
       <c r="SQ17" t="n">
-        <v>88432325</v>
+        <v>88434199</v>
       </c>
       <c r="SR17" t="n">
-        <v>123291257</v>
+        <v>123361256</v>
       </c>
       <c r="SS17" t="n">
         <v>87607809</v>
       </c>
       <c r="ST17" t="n">
-        <v>110678928</v>
+        <v>110668331</v>
       </c>
       <c r="SU17" t="n">
-        <v>121082859</v>
+        <v>121086403</v>
       </c>
       <c r="SV17" t="n">
         <v>99754436</v>
@@ -27911,7 +28511,43 @@
         <v>108479230</v>
       </c>
       <c r="SX17" t="n">
-        <v>143101888</v>
+        <v>143109504</v>
+      </c>
+      <c r="SY17" t="n">
+        <v>98592348</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29447,7 +30083,7 @@
         <v>13195548</v>
       </c>
       <c r="SP18" t="n">
-        <v>12302062</v>
+        <v>12309386</v>
       </c>
       <c r="SQ18" t="n">
         <v>8706951</v>
@@ -29472,6 +30108,42 @@
       </c>
       <c r="SX18" t="n">
         <v>10231622</v>
+      </c>
+      <c r="SY18" t="n">
+        <v>9827344</v>
+      </c>
+      <c r="SZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -30998,13 +31670,13 @@
         <v>11887208</v>
       </c>
       <c r="SM19" t="n">
-        <v>21469865</v>
+        <v>21468013</v>
       </c>
       <c r="SN19" t="n">
-        <v>5715433</v>
+        <v>5714965</v>
       </c>
       <c r="SO19" t="n">
-        <v>6563461</v>
+        <v>6563969</v>
       </c>
       <c r="SP19" t="n">
         <v>6278993</v>
@@ -31016,7 +31688,7 @@
         <v>18586360</v>
       </c>
       <c r="SS19" t="n">
-        <v>17582135</v>
+        <v>17583964</v>
       </c>
       <c r="ST19" t="n">
         <v>21509040</v>
@@ -31032,6 +31704,42 @@
       </c>
       <c r="SX19" t="n">
         <v>12925876</v>
+      </c>
+      <c r="SY19" t="n">
+        <v>17064570</v>
+      </c>
+      <c r="SZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -32593,6 +33301,42 @@
       <c r="SX20" t="n">
         <v>0</v>
       </c>
+      <c r="SY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -34153,6 +34897,42 @@
       <c r="SX21" t="n">
         <v>0</v>
       </c>
+      <c r="SY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -35713,6 +36493,42 @@
       <c r="SX22" t="n">
         <v>16920792</v>
       </c>
+      <c r="SY22" t="n">
+        <v>11212162</v>
+      </c>
+      <c r="SZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -37238,40 +38054,76 @@
         <v>11317890</v>
       </c>
       <c r="SM23" t="n">
-        <v>10608940</v>
+        <v>10589738</v>
       </c>
       <c r="SN23" t="n">
-        <v>11102395</v>
+        <v>11118151</v>
       </c>
       <c r="SO23" t="n">
-        <v>11850021</v>
+        <v>11849196</v>
       </c>
       <c r="SP23" t="n">
-        <v>9748576</v>
+        <v>9743722</v>
       </c>
       <c r="SQ23" t="n">
-        <v>10821158</v>
+        <v>10821780</v>
       </c>
       <c r="SR23" t="n">
-        <v>12133962</v>
+        <v>12132700</v>
       </c>
       <c r="SS23" t="n">
-        <v>11200115</v>
+        <v>11207019</v>
       </c>
       <c r="ST23" t="n">
-        <v>12803344</v>
+        <v>12817429</v>
       </c>
       <c r="SU23" t="n">
-        <v>10664486</v>
+        <v>10670732</v>
       </c>
       <c r="SV23" t="n">
-        <v>12717258</v>
+        <v>12716317</v>
       </c>
       <c r="SW23" t="n">
         <v>13714504</v>
       </c>
       <c r="SX23" t="n">
         <v>14776274</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>11648881</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -38833,6 +39685,42 @@
       <c r="SX24" t="n">
         <v>6517094</v>
       </c>
+      <c r="SY24" t="n">
+        <v>8214100</v>
+      </c>
+      <c r="SZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -40358,40 +41246,76 @@
         <v>111629</v>
       </c>
       <c r="SM25" t="n">
-        <v>398895</v>
+        <v>400883</v>
       </c>
       <c r="SN25" t="n">
         <v>656846</v>
       </c>
       <c r="SO25" t="n">
-        <v>293303</v>
+        <v>291965</v>
       </c>
       <c r="SP25" t="n">
-        <v>557623</v>
+        <v>570624</v>
       </c>
       <c r="SQ25" t="n">
-        <v>847955</v>
+        <v>851209</v>
       </c>
       <c r="SR25" t="n">
-        <v>216136</v>
+        <v>219610</v>
       </c>
       <c r="SS25" t="n">
-        <v>286303</v>
+        <v>284662</v>
       </c>
       <c r="ST25" t="n">
-        <v>261560</v>
+        <v>264814</v>
       </c>
       <c r="SU25" t="n">
-        <v>296954</v>
+        <v>304641</v>
       </c>
       <c r="SV25" t="n">
-        <v>258733</v>
+        <v>320160</v>
       </c>
       <c r="SW25" t="n">
         <v>667314</v>
       </c>
       <c r="SX25" t="n">
         <v>325700</v>
+      </c>
+      <c r="SY25" t="n">
+        <v>1924932</v>
+      </c>
+      <c r="SZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -41953,6 +42877,42 @@
       <c r="SX26" t="n">
         <v>183095</v>
       </c>
+      <c r="SY26" t="n">
+        <v>38748</v>
+      </c>
+      <c r="SZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -43513,6 +44473,42 @@
       <c r="SX27" t="n">
         <v>1634</v>
       </c>
+      <c r="SY27" t="n">
+        <v>13551</v>
+      </c>
+      <c r="SZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -45073,6 +46069,42 @@
       <c r="SX28" t="n">
         <v>2019555</v>
       </c>
+      <c r="SY28" t="n">
+        <v>1138933</v>
+      </c>
+      <c r="SZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -46633,6 +47665,42 @@
       <c r="SX29" t="n">
         <v>29090</v>
       </c>
+      <c r="SY29" t="n">
+        <v>33890</v>
+      </c>
+      <c r="SZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -48176,22 +49244,58 @@
         <v>68982254</v>
       </c>
       <c r="SS30" t="n">
-        <v>68430937</v>
+        <v>68433498</v>
       </c>
       <c r="ST30" t="n">
         <v>59192993</v>
       </c>
       <c r="SU30" t="n">
-        <v>49541024</v>
+        <v>49527584</v>
       </c>
       <c r="SV30" t="n">
-        <v>58303299</v>
+        <v>58268833</v>
       </c>
       <c r="SW30" t="n">
-        <v>76232739</v>
+        <v>76230833</v>
       </c>
       <c r="SX30" t="n">
-        <v>80823305</v>
+        <v>80821176</v>
+      </c>
+      <c r="SY30" t="n">
+        <v>65350657</v>
+      </c>
+      <c r="SZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -49718,40 +50822,76 @@
         <v>145026393</v>
       </c>
       <c r="SM31" t="n">
-        <v>156572031</v>
+        <v>156247859</v>
       </c>
       <c r="SN31" t="n">
-        <v>131138287</v>
+        <v>130743972</v>
       </c>
       <c r="SO31" t="n">
-        <v>176379409</v>
+        <v>176247238</v>
       </c>
       <c r="SP31" t="n">
-        <v>254383775</v>
+        <v>254026224</v>
       </c>
       <c r="SQ31" t="n">
-        <v>217287461</v>
+        <v>217207344</v>
       </c>
       <c r="SR31" t="n">
-        <v>202265396</v>
+        <v>202121901</v>
       </c>
       <c r="SS31" t="n">
-        <v>250087730</v>
+        <v>250222067</v>
       </c>
       <c r="ST31" t="n">
-        <v>305450286</v>
+        <v>305204933</v>
       </c>
       <c r="SU31" t="n">
-        <v>316930449</v>
+        <v>317010031</v>
       </c>
       <c r="SV31" t="n">
-        <v>267875646</v>
+        <v>268349876</v>
       </c>
       <c r="SW31" t="n">
-        <v>330700558</v>
+        <v>330829001</v>
       </c>
       <c r="SX31" t="n">
-        <v>369263851</v>
+        <v>369370783</v>
+      </c>
+      <c r="SY31" t="n">
+        <v>349718774</v>
+      </c>
+      <c r="SZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -51313,6 +52453,42 @@
       <c r="SX32" t="n">
         <v>0</v>
       </c>
+      <c r="SY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -52873,6 +54049,42 @@
       <c r="SX33" t="n">
         <v>0</v>
       </c>
+      <c r="SY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -54433,6 +55645,42 @@
       <c r="SX34" t="n">
         <v>4221422</v>
       </c>
+      <c r="SY34" t="n">
+        <v>1411126</v>
+      </c>
+      <c r="SZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -55967,7 +57215,7 @@
         <v>95921</v>
       </c>
       <c r="SP35" t="n">
-        <v>75533</v>
+        <v>75490</v>
       </c>
       <c r="SQ35" t="n">
         <v>48728</v>
@@ -55992,6 +57240,42 @@
       </c>
       <c r="SX35" t="n">
         <v>11270</v>
+      </c>
+      <c r="SY35" t="n">
+        <v>88612</v>
+      </c>
+      <c r="SZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -57553,6 +58837,42 @@
       <c r="SX36" t="n">
         <v>13679</v>
       </c>
+      <c r="SY36" t="n">
+        <v>16838</v>
+      </c>
+      <c r="SZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -59113,6 +60433,42 @@
       <c r="SX37" t="n">
         <v>0</v>
       </c>
+      <c r="SY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ37" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/158/MOF/TRADE/COUN/Middle East.xlsx
+++ b/data/158/MOF/TRADE/COUN/Middle East.xlsx
@@ -4577,7 +4577,7 @@
         <v>160655413</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>184590830</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>1036667548</v>
       </c>
       <c r="SY3" t="n">
-        <v>920208267</v>
+        <v>920382232</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>945259506</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>862897</v>
       </c>
       <c r="SZ4" t="n">
-        <v>0</v>
+        <v>609531</v>
       </c>
       <c r="TA4" t="n">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>316893</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>447916</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>6300894</v>
       </c>
       <c r="SZ6" t="n">
-        <v>0</v>
+        <v>4972844</v>
       </c>
       <c r="TA6" t="n">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>831</v>
       </c>
       <c r="SZ7" t="n">
-        <v>0</v>
+        <v>4709</v>
       </c>
       <c r="TA7" t="n">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>3656163</v>
       </c>
       <c r="SZ8" t="n">
-        <v>0</v>
+        <v>3778314</v>
       </c>
       <c r="TA8" t="n">
         <v>0</v>
@@ -15749,7 +15749,7 @@
         <v>15306590</v>
       </c>
       <c r="SZ9" t="n">
-        <v>0</v>
+        <v>6448461</v>
       </c>
       <c r="TA9" t="n">
         <v>0</v>
@@ -20537,7 +20537,7 @@
         <v>34044994</v>
       </c>
       <c r="SZ12" t="n">
-        <v>0</v>
+        <v>47095833</v>
       </c>
       <c r="TA12" t="n">
         <v>0</v>
@@ -22130,10 +22130,10 @@
         <v>397359996</v>
       </c>
       <c r="SY13" t="n">
-        <v>355693625</v>
+        <v>355858984</v>
       </c>
       <c r="SZ13" t="n">
-        <v>0</v>
+        <v>341599954</v>
       </c>
       <c r="TA13" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>10323135</v>
       </c>
       <c r="SZ14" t="n">
-        <v>0</v>
+        <v>9906387</v>
       </c>
       <c r="TA14" t="n">
         <v>0</v>
@@ -25325,7 +25325,7 @@
         <v>69804770</v>
       </c>
       <c r="SZ15" t="n">
-        <v>0</v>
+        <v>99802738</v>
       </c>
       <c r="TA15" t="n">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>8257422</v>
       </c>
       <c r="SZ16" t="n">
-        <v>0</v>
+        <v>15494342</v>
       </c>
       <c r="TA16" t="n">
         <v>0</v>
@@ -28514,10 +28514,10 @@
         <v>143109504</v>
       </c>
       <c r="SY17" t="n">
-        <v>98592348</v>
+        <v>98570144</v>
       </c>
       <c r="SZ17" t="n">
-        <v>0</v>
+        <v>130633666</v>
       </c>
       <c r="TA17" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>9827344</v>
       </c>
       <c r="SZ18" t="n">
-        <v>0</v>
+        <v>9444971</v>
       </c>
       <c r="TA18" t="n">
         <v>0</v>
@@ -31709,7 +31709,7 @@
         <v>17064570</v>
       </c>
       <c r="SZ19" t="n">
-        <v>0</v>
+        <v>29785368</v>
       </c>
       <c r="TA19" t="n">
         <v>0</v>
@@ -36497,7 +36497,7 @@
         <v>11212162</v>
       </c>
       <c r="SZ22" t="n">
-        <v>0</v>
+        <v>10580933</v>
       </c>
       <c r="TA22" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>11648881</v>
       </c>
       <c r="SZ23" t="n">
-        <v>0</v>
+        <v>10860991</v>
       </c>
       <c r="TA23" t="n">
         <v>0</v>
@@ -39689,7 +39689,7 @@
         <v>8214100</v>
       </c>
       <c r="SZ24" t="n">
-        <v>0</v>
+        <v>5628450</v>
       </c>
       <c r="TA24" t="n">
         <v>0</v>
@@ -41285,7 +41285,7 @@
         <v>1924932</v>
       </c>
       <c r="SZ25" t="n">
-        <v>0</v>
+        <v>2289549</v>
       </c>
       <c r="TA25" t="n">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>38748</v>
       </c>
       <c r="SZ26" t="n">
-        <v>0</v>
+        <v>20713</v>
       </c>
       <c r="TA26" t="n">
         <v>0</v>
@@ -44477,7 +44477,7 @@
         <v>13551</v>
       </c>
       <c r="SZ27" t="n">
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="TA27" t="n">
         <v>0</v>
@@ -46073,7 +46073,7 @@
         <v>1138933</v>
       </c>
       <c r="SZ28" t="n">
-        <v>0</v>
+        <v>979461</v>
       </c>
       <c r="TA28" t="n">
         <v>0</v>
@@ -47669,7 +47669,7 @@
         <v>33890</v>
       </c>
       <c r="SZ29" t="n">
-        <v>0</v>
+        <v>17410</v>
       </c>
       <c r="TA29" t="n">
         <v>0</v>
@@ -49265,7 +49265,7 @@
         <v>65350657</v>
       </c>
       <c r="SZ30" t="n">
-        <v>0</v>
+        <v>73950992</v>
       </c>
       <c r="TA30" t="n">
         <v>0</v>
@@ -50858,10 +50858,10 @@
         <v>369370783</v>
       </c>
       <c r="SY31" t="n">
-        <v>349718774</v>
+        <v>349749584</v>
       </c>
       <c r="SZ31" t="n">
-        <v>0</v>
+        <v>323301829</v>
       </c>
       <c r="TA31" t="n">
         <v>0</v>
@@ -55649,7 +55649,7 @@
         <v>1411126</v>
       </c>
       <c r="SZ34" t="n">
-        <v>0</v>
+        <v>2090740</v>
       </c>
       <c r="TA34" t="n">
         <v>0</v>
@@ -57245,7 +57245,7 @@
         <v>88612</v>
       </c>
       <c r="SZ35" t="n">
-        <v>0</v>
+        <v>63588</v>
       </c>
       <c r="TA35" t="n">
         <v>0</v>
@@ -58841,7 +58841,7 @@
         <v>16838</v>
       </c>
       <c r="SZ36" t="n">
-        <v>0</v>
+        <v>37319</v>
       </c>
       <c r="TA36" t="n">
         <v>0</v>
@@ -60437,7 +60437,7 @@
         <v>0</v>
       </c>
       <c r="SZ37" t="n">
-        <v>0</v>
+        <v>1769</v>
       </c>
       <c r="TA37" t="n">
         <v>0</v>
